--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chirag\STUDY\DSA\DSA 45 DAYS CHALLENGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB587C2F-5C95-4185-9024-74C1B9FC9C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3D5FC5-2123-4C11-BF34-D6E35CD62B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{963251A3-5840-4013-B535-D0729DB36711}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="332">
   <si>
     <t>#DSASheetbyArsh (45-60 Days) : Sheet1</t>
   </si>
@@ -1570,7 +1570,7 @@
   <dimension ref="A1:J335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1699,9 +1699,6 @@
       <c r="D7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>331</v>
-      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1741,7 +1738,9 @@
       <c r="D9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="20" t="s">
+        <v>331</v>
+      </c>
       <c r="F9" s="13" t="s">
         <v>23</v>
       </c>
@@ -1765,7 +1764,9 @@
       <c r="D10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="20" t="s">
+        <v>331</v>
+      </c>
       <c r="F10" s="13" t="s">
         <v>23</v>
       </c>
@@ -1785,7 +1786,9 @@
       <c r="D11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="20" t="s">
+        <v>331</v>
+      </c>
       <c r="F11" s="12"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -1803,7 +1806,9 @@
       <c r="D12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="20" t="s">
+        <v>331</v>
+      </c>
       <c r="F12" s="13" t="s">
         <v>23</v>
       </c>
@@ -1823,7 +1828,9 @@
       <c r="D13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="20" t="s">
+        <v>331</v>
+      </c>
       <c r="F13" s="10"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1843,7 +1850,9 @@
       <c r="D14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="20" t="s">
+        <v>331</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -1861,7 +1870,9 @@
       <c r="D15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="20" t="s">
+        <v>331</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chirag\STUDY\DSA\DSA 45 DAYS CHALLENGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3D5FC5-2123-4C11-BF34-D6E35CD62B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEC12D6-E2A8-438A-9056-0E2EB1DFE40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{963251A3-5840-4013-B535-D0729DB36711}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$6:$J$35</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="333">
   <si>
     <t>#DSASheetbyArsh (45-60 Days) : Sheet1</t>
   </si>
@@ -1020,14 +1023,17 @@
     <t>https://leetcode.com/problems/count-of-range-sum/</t>
   </si>
   <si>
-    <t>DONE</t>
+    <t>shruti</t>
+  </si>
+  <si>
+    <t>HoGayaa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1115,6 +1121,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="9" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1192,7 +1212,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1250,6 +1270,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1570,7 +1596,7 @@
   <dimension ref="A1:J335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1717,7 +1743,7 @@
         <v>22</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -1739,10 +1765,10 @@
         <v>24</v>
       </c>
       <c r="E9" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>331</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>23</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="13" t="s">
@@ -1765,7 +1791,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>23</v>
@@ -1787,7 +1813,7 @@
         <v>26</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="5"/>
@@ -1807,7 +1833,7 @@
         <v>27</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>23</v>
@@ -1829,7 +1855,7 @@
         <v>28</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="5"/>
@@ -1851,7 +1877,7 @@
         <v>29</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -1871,7 +1897,7 @@
         <v>30</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -1890,7 +1916,9 @@
       <c r="D16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="20" t="s">
+        <v>332</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="13" t="s">
@@ -1910,7 +1938,9 @@
       <c r="D17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="20" t="s">
+        <v>332</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -1928,7 +1958,9 @@
       <c r="D18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="20" t="s">
+        <v>332</v>
+      </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -1948,8 +1980,10 @@
       <c r="D19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="E19" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="F19" s="21"/>
       <c r="G19" s="13" t="s">
         <v>23</v>
       </c>
@@ -7861,6 +7895,15 @@
       <c r="C335" s="19"/>
     </row>
   </sheetData>
+  <autoFilter ref="C6:J35" xr:uid="{345952D3-C619-4DB6-A548-54F57AD92A84}"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E18" xr:uid="{6FD60171-1DB9-4DC6-9206-36CB9D3C9F68}">
+      <formula1>"HoGayaa, Phirse dhekna padega, Palle ni pada"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9" xr:uid="{28F809BF-775B-47A4-9BC4-034344D0B164}">
+      <formula1>"shruti, chirag"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" display="https://www.google.com/url?q=https://www.youtube.com/c/arshgoyal&amp;sa=D&amp;source=editors&amp;ust=1689857243530979&amp;usg=AOvVaw1xDcd-kTLolyJ3U9R1qbMs" xr:uid="{FA1D02CE-4A6C-4AD9-836C-BC1FCA92695F}"/>
     <hyperlink ref="D8" r:id="rId2" display="https://www.google.com/url?q=https://leetcode.com/problems/set-matrix-zeroes/&amp;sa=D&amp;source=editors&amp;ust=1689857243531445&amp;usg=AOvVaw0nGbgUu18h6pjREeUQ9gXp" xr:uid="{9E14FA4F-18DF-423A-AB27-6C30F7C36CFD}"/>
@@ -7875,7 +7918,7 @@
     <hyperlink ref="D17" r:id="rId11" display="https://www.google.com/url?q=https://leetcode.com/problems/subarray-sums-divisible-by-k/&amp;sa=D&amp;source=editors&amp;ust=1689857243532768&amp;usg=AOvVaw2203BLl2Ovf5v2rbU0UuOP" xr:uid="{C780C2EC-CC58-42A0-8AEC-F50F48517E83}"/>
     <hyperlink ref="D18" r:id="rId12" display="https://www.google.com/url?q=https://leetcode.com/problems/find-all-duplicates-in-an-array/&amp;sa=D&amp;source=editors&amp;ust=1689857243532890&amp;usg=AOvVaw1PLFm863IszbQcAE0Vj2gz" xr:uid="{6333E1F7-9C11-4794-A827-9A8070738C26}"/>
     <hyperlink ref="D19" r:id="rId13" display="https://www.google.com/url?q=https://leetcode.com/problems/container-with-most-water/&amp;sa=D&amp;source=editors&amp;ust=1689857243533062&amp;usg=AOvVaw2Rv6UYo-WkqJc7QffJ7GSS" xr:uid="{014A72E7-FD77-46D0-993F-C70F60032749}"/>
-    <hyperlink ref="D20" r:id="rId14" display="https://www.google.com/url?q=https://leetcode.com/problems/3sum/&amp;sa=D&amp;source=editors&amp;ust=1689857243533211&amp;usg=AOvVaw0UCps5Y_uKMUvaShK4XGvZ" xr:uid="{147FEF1F-9DCD-4CEF-B6BA-E71CC1A124B5}"/>
+    <hyperlink ref="D20" r:id="rId14" xr:uid="{147FEF1F-9DCD-4CEF-B6BA-E71CC1A124B5}"/>
     <hyperlink ref="D21" r:id="rId15" display="https://www.google.com/url?q=https://leetcode.com/problems/4sum/&amp;sa=D&amp;source=editors&amp;ust=1689857243533369&amp;usg=AOvVaw0xKsAGeBYO0F0Dm6gshgic" xr:uid="{EB65B31B-ECF9-4F27-8031-92CD83A84464}"/>
     <hyperlink ref="D22" r:id="rId16" display="https://www.google.com/url?q=https://leetcode.com/problems/maximum-points-you-can-obtain-from-cards/&amp;sa=D&amp;source=editors&amp;ust=1689857243533493&amp;usg=AOvVaw38OQDcb4MkP3S-RoFE19xc" xr:uid="{08106D29-9A9F-4A26-B0BF-96FE376DADC8}"/>
     <hyperlink ref="D23" r:id="rId17" display="https://www.google.com/url?q=https://leetcode.com/problems/subarray-sum-equals-k/&amp;sa=D&amp;source=editors&amp;ust=1689857243533643&amp;usg=AOvVaw3l-z1LAW9VEwA9xV1l8Zpa" xr:uid="{E7E07DBF-572A-4D45-889A-458FCCA0E8B7}"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chirag\STUDY\DSA\DSA 45 DAYS CHALLENGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEC12D6-E2A8-438A-9056-0E2EB1DFE40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95853FE-D660-4A5E-B05A-FD1E3D91EF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{963251A3-5840-4013-B535-D0729DB36711}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="333">
   <si>
     <t>#DSASheetbyArsh (45-60 Days) : Sheet1</t>
   </si>
@@ -1595,8 +1595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345952D3-C619-4DB6-A548-54F57AD92A84}">
   <dimension ref="A1:J335"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2002,7 +2002,9 @@
       <c r="D20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="22" t="s">
+        <v>332</v>
+      </c>
       <c r="F20" s="13" t="s">
         <v>23</v>
       </c>
@@ -2022,7 +2024,9 @@
       <c r="D21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>332</v>
+      </c>
       <c r="F21" s="5"/>
       <c r="G21" s="13" t="s">
         <v>23</v>
@@ -2042,7 +2046,9 @@
       <c r="D22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>332</v>
+      </c>
       <c r="F22" s="5"/>
       <c r="G22" s="13" t="s">
         <v>23</v>
@@ -2062,7 +2068,9 @@
       <c r="D23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>332</v>
+      </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -2082,7 +2090,9 @@
       <c r="D24" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>332</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chirag\STUDY\DSA\DSA 45 DAYS CHALLENGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95853FE-D660-4A5E-B05A-FD1E3D91EF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5D7BBD-4975-46FA-AE21-9127CCF6D553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{963251A3-5840-4013-B535-D0729DB36711}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="333">
   <si>
     <t>#DSASheetbyArsh (45-60 Days) : Sheet1</t>
   </si>
@@ -1595,8 +1595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345952D3-C619-4DB6-A548-54F57AD92A84}">
   <dimension ref="A1:J335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2110,7 +2110,9 @@
       <c r="D25" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>332</v>
+      </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chirag\STUDY\DSA\DSA 45 DAYS CHALLENGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5D7BBD-4975-46FA-AE21-9127CCF6D553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A90952-38BB-4E96-9C89-CBA58E66BD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{963251A3-5840-4013-B535-D0729DB36711}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="333">
   <si>
     <t>#DSASheetbyArsh (45-60 Days) : Sheet1</t>
   </si>
@@ -1596,7 +1596,7 @@
   <dimension ref="A1:J335"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2024,7 +2024,7 @@
       <c r="D21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="22" t="s">
         <v>332</v>
       </c>
       <c r="F21" s="5"/>
@@ -2046,7 +2046,7 @@
       <c r="D22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="22" t="s">
         <v>332</v>
       </c>
       <c r="F22" s="5"/>
@@ -2068,7 +2068,7 @@
       <c r="D23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="22" t="s">
         <v>332</v>
       </c>
       <c r="F23" s="5"/>
@@ -2090,7 +2090,7 @@
       <c r="D24" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="22" t="s">
         <v>332</v>
       </c>
       <c r="F24" s="5"/>
@@ -2110,7 +2110,7 @@
       <c r="D25" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="22" t="s">
         <v>332</v>
       </c>
       <c r="F25" s="5"/>
@@ -2130,7 +2130,9 @@
       <c r="D26" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="22" t="s">
+        <v>332</v>
+      </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -2148,7 +2150,9 @@
       <c r="D27" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="22" t="s">
+        <v>332</v>
+      </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -2166,7 +2170,9 @@
       <c r="D28" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="22" t="s">
+        <v>332</v>
+      </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -2184,7 +2190,9 @@
       <c r="D29" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="E29" s="22" t="s">
+        <v>332</v>
+      </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="13" t="s">
@@ -7938,7 +7946,7 @@
     <hyperlink ref="D25" r:id="rId19" display="https://www.google.com/url?q=https://leetcode.com/problems/word-search/&amp;sa=D&amp;source=editors&amp;ust=1689857243533909&amp;usg=AOvVaw1MbkisEe21jqfABvIjxTgx" xr:uid="{CBB7B6B6-F521-4CAC-8F4C-718970A003B8}"/>
     <hyperlink ref="D26" r:id="rId20" display="https://www.google.com/url?q=https://leetcode.com/problems/jump-game/&amp;sa=D&amp;source=editors&amp;ust=1689857243534015&amp;usg=AOvVaw30hfG5yBKvTtMNMSkCJGf8" xr:uid="{2CE8F091-1238-46D6-A94B-27F4F04ACC56}"/>
     <hyperlink ref="D27" r:id="rId21" display="https://www.google.com/url?q=https://leetcode.com/problems/merge-sorted-array/&amp;sa=D&amp;source=editors&amp;ust=1689857243534150&amp;usg=AOvVaw0-GhH84TfORqqkhAB-gf7g" xr:uid="{57ED09D3-0350-4DD6-9AF3-0F27E3A1D4D7}"/>
-    <hyperlink ref="D28" r:id="rId22" display="https://www.google.com/url?q=https://leetcode.com/problems/majority-element/&amp;sa=D&amp;source=editors&amp;ust=1689857243534268&amp;usg=AOvVaw1BZcjC5mS_3VhE_YfzFhAm" xr:uid="{627B3426-287B-414E-A823-33B908514E0B}"/>
+    <hyperlink ref="D28" r:id="rId22" xr:uid="{627B3426-287B-414E-A823-33B908514E0B}"/>
     <hyperlink ref="D29" r:id="rId23" display="https://www.google.com/url?q=https://leetcode.com/problems/reverse-pairs/&amp;sa=D&amp;source=editors&amp;ust=1689857243534373&amp;usg=AOvVaw0XWQmYxfdCV231Kgd4VIU2" xr:uid="{9FDB3F73-3569-47E1-B6FE-E842D438AC36}"/>
     <hyperlink ref="D30" r:id="rId24" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/print-all-possible-combinations-of-r-elements-in-a-given-array-of-size-n/&amp;sa=D&amp;source=editors&amp;ust=1689857243534509&amp;usg=AOvVaw2aBkWqgqPNU6YgAaKvdBca" xr:uid="{493EA2E6-373F-4A49-9D74-22CBD66CDB49}"/>
     <hyperlink ref="D31" r:id="rId25" display="https://www.google.com/url?q=https://leetcode.com/problems/game-of-life/&amp;sa=D&amp;source=editors&amp;ust=1689857243534682&amp;usg=AOvVaw3YvAz4lo_ExGNLLwyGknAg" xr:uid="{A7F4A6DE-B0EF-4210-A740-13128541057C}"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chirag\STUDY\DSA\DSA 45 DAYS CHALLENGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A90952-38BB-4E96-9C89-CBA58E66BD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE40D602-BBE0-44F7-90F3-895D4107D68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{963251A3-5840-4013-B535-D0729DB36711}"/>
+    <workbookView minimized="1" xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{963251A3-5840-4013-B535-D0729DB36711}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="333">
   <si>
     <t>#DSASheetbyArsh (45-60 Days) : Sheet1</t>
   </si>
@@ -1595,8 +1595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345952D3-C619-4DB6-A548-54F57AD92A84}">
   <dimension ref="A1:J335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2212,7 +2212,9 @@
       <c r="D30" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="15"/>
+      <c r="E30" s="22" t="s">
+        <v>332</v>
+      </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="13" t="s">
@@ -7951,7 +7953,7 @@
     <hyperlink ref="D30" r:id="rId24" display="https://www.google.com/url?q=https://www.geeksforgeeks.org/print-all-possible-combinations-of-r-elements-in-a-given-array-of-size-n/&amp;sa=D&amp;source=editors&amp;ust=1689857243534509&amp;usg=AOvVaw2aBkWqgqPNU6YgAaKvdBca" xr:uid="{493EA2E6-373F-4A49-9D74-22CBD66CDB49}"/>
     <hyperlink ref="D31" r:id="rId25" display="https://www.google.com/url?q=https://leetcode.com/problems/game-of-life/&amp;sa=D&amp;source=editors&amp;ust=1689857243534682&amp;usg=AOvVaw3YvAz4lo_ExGNLLwyGknAg" xr:uid="{A7F4A6DE-B0EF-4210-A740-13128541057C}"/>
     <hyperlink ref="D32" r:id="rId26" display="https://www.google.com/url?q=https://leetcode.com/problems/max-value-of-equation/&amp;sa=D&amp;source=editors&amp;ust=1689857243534820&amp;usg=AOvVaw01hSseNdeSQyAPQH44aZyZ" xr:uid="{D809681D-9E6D-421D-8E0F-3AB5C1637594}"/>
-    <hyperlink ref="D33" r:id="rId27" display="https://www.google.com/url?q=https://leetcode.com/problems/insert-delete-getrandom-o1-duplicates-allowed/&amp;sa=D&amp;source=editors&amp;ust=1689857243534945&amp;usg=AOvVaw32yrxulGSTc07PHEOSKDGD" xr:uid="{68E1923B-2706-4794-AC26-3E0DDD89DD10}"/>
+    <hyperlink ref="D33" r:id="rId27" xr:uid="{68E1923B-2706-4794-AC26-3E0DDD89DD10}"/>
     <hyperlink ref="D34" r:id="rId28" display="https://www.google.com/url?q=https://leetcode.com/problems/largest-rectangle-in-histogram/&amp;sa=D&amp;source=editors&amp;ust=1689857243535048&amp;usg=AOvVaw2hCtjG_jHnV9sCx3SLyjzm" xr:uid="{14CAD35C-BFF0-42F9-AA45-15508AF1F8AB}"/>
     <hyperlink ref="D35" r:id="rId29" display="https://www.google.com/url?q=https://leetcode.com/problems/max-value-of-equation/&amp;sa=D&amp;source=editors&amp;ust=1689857243535166&amp;usg=AOvVaw28Fi3MKMsp8bdtx8aENjmT" xr:uid="{A568CE2B-95B0-4E3C-B474-D99272B1E575}"/>
     <hyperlink ref="D39" r:id="rId30" display="https://www.google.com/url?q=https://leetcode.com/problems/valid-parentheses/&amp;sa=D&amp;source=editors&amp;ust=1689857243535392&amp;usg=AOvVaw3wG5_q3b8maVQAirE9QQZe" xr:uid="{CEFA711A-0147-4E5D-B642-3A81F8245C05}"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chirag\STUDY\DSA\DSA 45 DAYS CHALLENGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE40D602-BBE0-44F7-90F3-895D4107D68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EC2EA9-E665-4C80-8985-3AB91CF3D59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{963251A3-5840-4013-B535-D0729DB36711}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{963251A3-5840-4013-B535-D0729DB36711}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="334">
   <si>
     <t>#DSASheetbyArsh (45-60 Days) : Sheet1</t>
   </si>
@@ -1027,6 +1027,9 @@
   </si>
   <si>
     <t>HoGayaa</t>
+  </si>
+  <si>
+    <t>REVISE</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1139,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1164,6 +1167,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1212,7 +1221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1276,6 +1285,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1595,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345952D3-C619-4DB6-A548-54F57AD92A84}">
   <dimension ref="A1:J335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2234,7 +2246,9 @@
       <c r="D31" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="22" t="s">
+        <v>332</v>
+      </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="13" t="s">
@@ -2254,7 +2268,9 @@
       <c r="D32" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="E32" s="23" t="s">
+        <v>333</v>
+      </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="13" t="s">
@@ -2274,7 +2290,9 @@
       <c r="D33" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="E33" s="23" t="s">
+        <v>333</v>
+      </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
@@ -2372,7 +2390,9 @@
       <c r="D39" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="5"/>
+      <c r="E39" s="22" t="s">
+        <v>332</v>
+      </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -2392,7 +2412,9 @@
       <c r="D40" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="5"/>
+      <c r="E40" s="22" t="s">
+        <v>332</v>
+      </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chirag\STUDY\DSA\DSA 45 DAYS CHALLENGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EC2EA9-E665-4C80-8985-3AB91CF3D59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27DA593-25AD-41C4-9DE5-E58DFF022027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{963251A3-5840-4013-B535-D0729DB36711}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="334">
   <si>
     <t>#DSASheetbyArsh (45-60 Days) : Sheet1</t>
   </si>
@@ -1607,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345952D3-C619-4DB6-A548-54F57AD92A84}">
   <dimension ref="A1:J335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2432,7 +2432,9 @@
       <c r="D41" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="5"/>
+      <c r="E41" s="22" t="s">
+        <v>332</v>
+      </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -2452,7 +2454,9 @@
       <c r="D42" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E42" s="5"/>
+      <c r="E42" s="22" t="s">
+        <v>332</v>
+      </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -2470,7 +2474,9 @@
       <c r="D43" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="E43" s="22" t="s">
+        <v>332</v>
+      </c>
       <c r="F43" s="13" t="s">
         <v>23</v>
       </c>
@@ -2492,7 +2498,9 @@
       <c r="D44" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="5"/>
+      <c r="E44" s="22" t="s">
+        <v>332</v>
+      </c>
       <c r="F44" s="13" t="s">
         <v>23</v>
       </c>
@@ -2512,7 +2520,9 @@
       <c r="D45" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E45" s="5"/>
+      <c r="E45" s="22" t="s">
+        <v>332</v>
+      </c>
       <c r="F45" s="12"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
@@ -2532,7 +2542,9 @@
       <c r="D46" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E46" s="5"/>
+      <c r="E46" s="22" t="s">
+        <v>332</v>
+      </c>
       <c r="F46" s="13" t="s">
         <v>23</v>
       </c>
@@ -2572,7 +2584,9 @@
       <c r="D48" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="5"/>
+      <c r="E48" s="22" t="s">
+        <v>332</v>
+      </c>
       <c r="F48" s="13" t="s">
         <v>23</v>
       </c>
